--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.43</v>
+        <v>-20.806</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.164</v>
+        <v>-22.225</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.366</v>
+        <v>-19.575</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.736</v>
+        <v>-12.489</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.096</v>
+        <v>-22.134</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.95</v>
+        <v>-12.924</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.53</v>
+        <v>-10.782</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.358</v>
+        <v>-13.381</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.814</v>
+        <v>-21.857</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.436</v>
+        <v>-19.853</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.072</v>
+        <v>-12.366</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.392</v>
+        <v>-20.428</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.784</v>
+        <v>-12.761</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.076</v>
+        <v>-12.867</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.21</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.856</v>
+        <v>-22.033</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-22.148</v>
+        <v>-21.426</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.604</v>
+        <v>-12.303</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.118</v>
+        <v>-22.112</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.45</v>
+        <v>-21.771</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.506</v>
+        <v>-11.955</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.172</v>
+        <v>-20.148</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.794</v>
+        <v>-12.492</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-14.15</v>
+        <v>-13.179</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.75</v>
+        <v>-13.216</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.762</v>
+        <v>-13.054</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.044</v>
+        <v>-21.951</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.722</v>
+        <v>-13.381</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.83</v>
+        <v>-13.999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.502</v>
+        <v>-21.697</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.538</v>
+        <v>-11.2</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.798</v>
+        <v>-21.988</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.134</v>
+        <v>-21.859</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.666</v>
+        <v>-13.322</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.026</v>
+        <v>-22.278</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.944</v>
+        <v>-22.151</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.332</v>
+        <v>-12.4</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.748</v>
+        <v>-21.674</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.544</v>
+        <v>-11.405</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.196</v>
+        <v>-11.3</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.392</v>
+        <v>-20.685</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.076</v>
+        <v>-21.244</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.358</v>
+        <v>-20.342</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.472</v>
+        <v>-11.816</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.922</v>
+        <v>-13.704</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.498</v>
+        <v>-13.759</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.652</v>
+        <v>-21.626</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.34</v>
+        <v>-11.472</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.304</v>
+        <v>-12.349</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.028</v>
+        <v>-22.063</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
